--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Naar\Documents\dok\TARU\EEGManyLabs\Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Naar\Documents\dok\TARU\EEGManyLabs\Task\spotlight_replication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB1A42E-018D-4F2C-B034-158142F64889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430436B-2458-48F9-9143-D9738A113FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>attendCond</t>
   </si>
@@ -81,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +410,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -450,6 +451,160 @@
       </c>
       <c r="C7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Naar\Documents\dok\TARU\EEGManyLabs\Task\spotlight_replication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430436B-2458-48F9-9143-D9738A113FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B41CAA-1E3E-4416-A106-B65BA3FF14B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>attendCond</t>
   </si>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A14" sqref="A14:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,94 +519,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Naar\Documents\dok\TARU\EEGManyLabs\Task\spotlight_replication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B41CAA-1E3E-4416-A106-B65BA3FF14B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF215623-CE56-4086-BEF0-3F76F1F49AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>attendCond</t>
+    <t>condFile</t>
   </si>
   <si>
-    <t>1+2</t>
+    <t>experiment.xlsx</t>
   </si>
   <si>
-    <t>1+3</t>
-  </si>
-  <si>
-    <t>2+4</t>
-  </si>
-  <si>
-    <t>3+4</t>
-  </si>
-  <si>
-    <t>pos2attLeft</t>
-  </si>
-  <si>
-    <t>pos2attRight</t>
+    <t>training.xlsx</t>
   </si>
 </sst>
 </file>
@@ -81,9 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,163 +351,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>